--- a/CDM/Dash_eng/join_table/join_table_visit_detail.xlsx
+++ b/CDM/Dash_eng/join_table/join_table_visit_detail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsj28\Desktop\CDM-dash\응급실\_data\join_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E77457-220F-47F1-A364-6AC435D5F265}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A48699-C0E9-4D84-A46D-5E1D6D074DCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35535" yWindow="3435" windowWidth="19920" windowHeight="12765" xr2:uid="{3624DD4E-8188-47CD-B6B9-A8E8FA3D6304}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{3624DD4E-8188-47CD-B6B9-A8E8FA3D6304}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -462,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>45878574</v>
+        <v>4021813</v>
       </c>
       <c r="C3">
         <v>0</v>
